--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/DISTRICT_OF_COLUMBIA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/DISTRICT_OF_COLUMBIA_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D236"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -431,7 +431,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C5">
@@ -701,7 +701,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C29">
@@ -932,7 +932,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -950,7 +950,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C43">
@@ -976,7 +976,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C45">
@@ -1028,7 +1028,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C49">
@@ -1067,7 +1067,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C52">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C54">
@@ -1137,7 +1137,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C57">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C63">
@@ -1246,7 +1246,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C65">
@@ -1272,7 +1272,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C67">
@@ -1298,7 +1298,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C69">
@@ -1311,7 +1311,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C70">
@@ -1324,7 +1324,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C71">
@@ -1363,7 +1363,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C74">
@@ -1376,7 +1376,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C75">
@@ -1415,7 +1415,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C78">
@@ -1428,7 +1428,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C79">
@@ -1594,7 +1594,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C91">
@@ -1861,7 +1861,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C110">
@@ -1874,7 +1874,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C111">
@@ -1900,7 +1900,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C113">
@@ -1939,7 +1939,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C116">
@@ -1952,7 +1952,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C117">
@@ -1965,7 +1965,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C118">
@@ -2017,7 +2017,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C122">
@@ -2030,7 +2030,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C123">
@@ -2043,7 +2043,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C124">
@@ -2225,7 +2225,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C138">
@@ -2277,7 +2277,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C142">
@@ -2290,7 +2290,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C143">
@@ -2303,7 +2303,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C144">
@@ -2399,7 +2399,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C151">
@@ -2451,7 +2451,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C155">
@@ -2659,7 +2659,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C171">
@@ -2685,7 +2685,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C173">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C180">
@@ -2794,7 +2794,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C181">
@@ -3097,7 +3097,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C202">
@@ -3149,7 +3149,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C206">
@@ -3188,7 +3188,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C209">
@@ -3227,7 +3227,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C212">
@@ -3432,7 +3432,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C227">
@@ -3479,41 +3479,6 @@
       </c>
       <c r="D230">
         <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/DISTRICT_OF_COLUMBIA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/DISTRICT_OF_COLUMBIA_2015.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Simojovel</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Socoltenango</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -546,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -559,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -572,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -585,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -598,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -629,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -642,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -904,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -917,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -948,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -961,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -974,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -987,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1000,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -1013,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -1026,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1039,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -1052,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1065,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Valle De Bravo</t>
@@ -1078,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1122,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -1135,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -1148,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>León</t>
@@ -1161,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -1174,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -1187,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Villagrán</t>
@@ -1200,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1231,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -1244,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -1257,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Alpoyeca</t>
@@ -1270,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Atenango Del Río</t>
@@ -1283,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -1296,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1309,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -1322,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -1335,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -1348,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -1361,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -1374,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -1387,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Pedro Ascencio Alquisiras</t>
@@ -1400,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -1413,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Tixtla De Guerrero</t>
@@ -1426,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1439,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -1452,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -1465,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1496,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Apan</t>
@@ -1509,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>San Agustín Tlaxiaca</t>
@@ -1522,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>San Salvador</t>
@@ -1535,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -1548,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1579,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1592,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Huejuquilla El Alto</t>
@@ -1605,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -1618,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -1631,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1644,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1675,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -1688,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -1701,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Indaparapeo</t>
@@ -1714,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1727,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1740,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1771,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -1784,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -1797,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1828,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1859,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Acatlán De Pérez Figueroa</t>
@@ -1872,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Chalcatongo De Hidalgo</t>
@@ -1885,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Coatecas Altas</t>
@@ -1898,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Coicoyán De Las Flores</t>
@@ -1911,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -1924,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Guadalupe Etla</t>
@@ -1937,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -1950,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Ixtlán De Juárez</t>
@@ -1963,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -1976,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -1989,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Magdalena Apasco</t>
@@ -2002,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Magdalena Tequisistlán</t>
@@ -2015,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -2028,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -2041,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -2054,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>San Francisco Ixhuatán</t>
@@ -2067,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>San Juan Bautista Cuicatlán</t>
@@ -2080,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>San Juan Bautista Guelache</t>
@@ -2093,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>San Juan Bautista Jayacatlán</t>
@@ -2106,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -2119,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>San Juan Bautista Valle Nacional</t>
@@ -2132,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>San Juan Mixtepec - Distr. 08 -</t>
@@ -2145,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>San Juan Ozolotepec</t>
@@ -2158,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>San Miguel Huautla</t>
@@ -2171,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>San Pablo Huitzo</t>
@@ -2184,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>San Pedro Tapanatepec</t>
@@ -2197,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>San Sebastián Tecomaxtlahuaca</t>
@@ -2210,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -2223,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -2236,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Santo Tomás Mazaltepec</t>
@@ -2249,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -2262,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -2275,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -2288,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Villa De Chilapa De Díaz</t>
@@ -2301,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Zimatlán De Álvarez</t>
@@ -2314,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2345,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -2358,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -2371,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -2384,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -2397,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Cuayuca De Andrade</t>
@@ -2410,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>General Felipe Ángeles</t>
@@ -2423,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -2436,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -2449,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -2462,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Mixtla</t>
@@ -2475,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Nealtican</t>
@@ -2488,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Ocotepec</t>
@@ -2501,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Petlalcingo</t>
@@ -2514,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -2527,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Quecholac</t>
@@ -2540,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -2553,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>San Andrés Cholula</t>
@@ -2566,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>San Gabriel Chilac</t>
@@ -2579,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -2592,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -2605,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Tecomatlán</t>
@@ -2618,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -2631,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -2644,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Teotlalco</t>
@@ -2657,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Tepanco De López</t>
@@ -2670,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Tepeojuma</t>
@@ -2683,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -2696,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -2709,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -2722,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Xiutetelco</t>
@@ -2735,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -2748,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -2761,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2792,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -2805,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Tolimán</t>
@@ -2818,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2849,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2880,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2911,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Macuspana</t>
@@ -2924,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2955,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2986,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -2999,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -3012,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>San José Teacalco</t>
@@ -3025,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Terrenate</t>
@@ -3038,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -3051,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Yauhquemehcan</t>
@@ -3064,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3095,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Amatlán De Los Reyes</t>
@@ -3108,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -3121,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -3134,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -3147,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -3160,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Fortín</t>
@@ -3173,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -3186,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -3199,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Mecayapan</t>
@@ -3212,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -3225,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Paso Del Macho</t>
@@ -3238,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -3251,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -3264,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -3277,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -3290,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -3303,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -3316,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -3329,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -3342,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Yecuatla</t>
@@ -3355,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3386,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Tixkokob</t>
@@ -3399,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3430,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Nochistlán De Mejía</t>
@@ -3443,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -3456,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Total</t>
